--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,14 +787,17 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,46 +808,49 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,46 +861,49 @@
         <v>-100</v>
       </c>
       <c r="F10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,20 +1040,20 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1053,14 +1073,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,49 +1289,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,54 +1342,57 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1361,7 +1401,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1382,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1394,60 +1434,66 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1925,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2185,14 +2272,17 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,20 +2348,20 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2380,19 +2479,22 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2406,11 +2508,11 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2430,19 +2532,22 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,19 +2611,19 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2558,8 +2669,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2567,8 +2678,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2717,8 +2837,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2803,13 +2929,13 @@
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2830,19 +2956,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2896,54 +3027,57 @@
         <v>1800</v>
       </c>
       <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
       </c>
       <c r="L57" s="3">
         <v>1600</v>
       </c>
       <c r="M57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -2970,48 +3104,51 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2400</v>
       </c>
       <c r="M59" s="3">
         <v>2400</v>
@@ -3020,69 +3157,75 @@
         <v>2400</v>
       </c>
       <c r="O59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4200</v>
       </c>
       <c r="N60" s="3">
         <v>4200</v>
       </c>
       <c r="O60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4200</v>
       </c>
       <c r="N66" s="3">
         <v>4200</v>
       </c>
       <c r="O66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3610,49 +3784,52 @@
         <v>-28300</v>
       </c>
       <c r="E72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-27700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-26700</v>
       </c>
       <c r="I72" s="3">
         <v>-26700</v>
       </c>
       <c r="J72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-26600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3400</v>
       </c>
       <c r="I76" s="3">
         <v>-3400</v>
       </c>
       <c r="J76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-4200</v>
       </c>
       <c r="N76" s="3">
         <v>-4200</v>
       </c>
       <c r="O76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4335,10 +4552,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4350,7 +4567,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4362,22 +4579,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4407,8 +4628,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4422,8 +4643,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4558,11 +4788,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4572,8 +4802,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4581,23 +4811,26 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,13 +5071,13 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -4840,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4852,22 +5098,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,14 +793,17 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,46 +817,49 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,46 +873,49 @@
         <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,20 +1062,20 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1076,14 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,60 +1378,63 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1404,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1425,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1437,63 +1476,69 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2275,14 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,20 +2443,20 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2458,7 +2556,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2482,19 +2580,22 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2511,11 +2612,11 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2535,19 +2636,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2614,19 +2721,19 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2672,8 +2782,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2681,8 +2791,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2828,8 +2947,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2840,8 +2959,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
@@ -2932,13 +3057,13 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2959,19 +3084,22 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
@@ -3030,43 +3160,46 @@
         <v>1800</v>
       </c>
       <c r="H57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="3">
         <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
       </c>
       <c r="J57" s="3">
         <v>1600</v>
       </c>
       <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
         <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1600</v>
       </c>
       <c r="M57" s="3">
         <v>1600</v>
       </c>
       <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>900</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,13 +3207,13 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3107,51 +3240,54 @@
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2400</v>
       </c>
       <c r="N59" s="3">
         <v>2400</v>
@@ -3160,72 +3296,78 @@
         <v>2400</v>
       </c>
       <c r="P59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>4200</v>
       </c>
       <c r="O60" s="3">
         <v>4200</v>
       </c>
       <c r="P60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4200</v>
       </c>
       <c r="O66" s="3">
         <v>4200</v>
       </c>
       <c r="P66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28300</v>
+        <v>-28800</v>
       </c>
       <c r="E72" s="3">
         <v>-28300</v>
       </c>
       <c r="F72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-27700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-26700</v>
       </c>
       <c r="J72" s="3">
         <v>-26700</v>
       </c>
       <c r="K72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-26600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3400</v>
       </c>
       <c r="J76" s="3">
         <v>-3400</v>
       </c>
       <c r="K76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-4200</v>
       </c>
       <c r="O76" s="3">
         <v>-4200</v>
       </c>
       <c r="P76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4555,10 +4771,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4570,7 +4786,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4582,22 +4798,25 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,8 +4851,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4646,8 +4866,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4791,11 +5020,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4805,8 +5034,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4814,23 +5043,26 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,13 +5319,13 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -5089,7 +5334,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5101,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,14 +800,17 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,46 +827,49 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,46 +886,49 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,20 +1085,20 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,55 +1215,58 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1356,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,66 +1415,69 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1446,7 +1486,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1467,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1479,66 +1519,72 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2364,14 +2451,17 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2446,20 +2539,20 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2559,7 +2658,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2583,19 +2682,22 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2615,11 +2717,11 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2639,19 +2741,22 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2724,19 +2832,19 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2785,8 +2896,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2794,8 +2905,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2950,8 +3070,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2962,8 +3082,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,7 +3177,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -3060,13 +3186,13 @@
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3087,19 +3213,22 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,16 +3272,17 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1800</v>
       </c>
       <c r="F57" s="3">
         <v>1800</v>
@@ -3163,60 +3294,63 @@
         <v>1800</v>
       </c>
       <c r="I57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J57" s="3">
         <v>1700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1600</v>
       </c>
       <c r="K57" s="3">
         <v>1600</v>
       </c>
       <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
         <v>1700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
       </c>
       <c r="N57" s="3">
         <v>1600</v>
       </c>
       <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>900</v>
       </c>
       <c r="S57" s="3">
         <v>900</v>
       </c>
       <c r="T57" s="3">
+        <v>900</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -3243,54 +3377,57 @@
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2400</v>
       </c>
       <c r="O59" s="3">
         <v>2400</v>
@@ -3299,75 +3436,81 @@
         <v>2400</v>
       </c>
       <c r="Q59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4200</v>
       </c>
       <c r="P60" s="3">
         <v>4200</v>
       </c>
       <c r="Q60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4200</v>
       </c>
       <c r="P66" s="3">
         <v>4200</v>
       </c>
       <c r="Q66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-28300</v>
       </c>
       <c r="F72" s="3">
         <v>-28300</v>
       </c>
       <c r="G72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-27700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-26700</v>
       </c>
       <c r="K72" s="3">
         <v>-26700</v>
       </c>
       <c r="L72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-26600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-26300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3400</v>
       </c>
       <c r="K76" s="3">
         <v>-3400</v>
       </c>
       <c r="L76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-4200</v>
       </c>
       <c r="P76" s="3">
         <v>-4200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4973,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4774,10 +4991,10 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4789,7 +5006,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4801,22 +5018,25 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4854,8 +5075,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4869,8 +5090,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5023,11 +5253,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5037,8 +5267,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5046,23 +5276,26 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -5322,13 +5568,13 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5337,7 +5583,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5349,22 +5595,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,14 +811,20 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,19 +844,19 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -854,22 +868,28 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,19 +909,19 @@
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -913,22 +933,28 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,25 +1102,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1094,17 +1134,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1121,14 +1161,20 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1258,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1272,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1227,19 +1281,19 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1248,25 +1302,31 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1286,19 +1346,19 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1307,25 +1367,31 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,58 +1424,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1489,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,25 +1554,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1510,81 +1590,93 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,117 +2204,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2573,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2454,14 +2628,20 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,46 +2699,52 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2661,10 +2859,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2685,19 +2883,25 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2720,14 +2924,14 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2744,19 +2948,25 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2826,31 +3042,31 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2899,20 +3121,20 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3073,11 +3313,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3085,11 +3325,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3414,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3180,26 +3432,26 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3216,19 +3468,25 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,22 +3533,24 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1800</v>
       </c>
       <c r="H57" s="3">
         <v>1800</v>
@@ -3297,43 +3559,49 @@
         <v>1800</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1700</v>
       </c>
       <c r="N57" s="3">
         <v>1600</v>
       </c>
       <c r="O57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,22 +3609,22 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3380,137 +3648,155 @@
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G59" s="3">
         <v>2100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2000</v>
       </c>
       <c r="H59" s="3">
         <v>1600</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L59" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2400</v>
       </c>
       <c r="Q59" s="3">
         <v>2400</v>
       </c>
       <c r="R59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-28800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-28300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-28300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-26700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-26700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-26400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-26200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-25500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-24500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3500</v>
       </c>
       <c r="K76" s="3">
         <v>-3400</v>
       </c>
       <c r="L76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5404,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,19 +5422,19 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5009,10 +5443,10 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5021,22 +5455,28 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,19 +5498,21 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5078,11 +5520,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -5093,11 +5535,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5689,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5256,46 +5716,52 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6039,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,31 +6057,31 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5598,22 +6090,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6169,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,14 +820,17 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,46 +856,49 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,46 +924,49 @@
         <v>-100</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,14 +1159,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1167,14 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1278,55 +1304,58 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,55 +1372,58 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,134 +1457,140 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1560,14 +1599,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
@@ -1575,7 +1614,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1596,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1608,75 +1647,81 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>2800</v>
       </c>
       <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,129 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2634,14 +2720,17 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2731,23 +2823,23 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2865,7 +2963,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2889,19 +2987,22 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2930,11 +3031,11 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2954,19 +3055,22 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3048,7 +3155,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3057,10 +3164,10 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3068,8 +3175,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3127,8 +3237,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -3136,8 +3246,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3319,8 +3438,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3331,8 +3450,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3438,7 +3563,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
@@ -3447,13 +3572,13 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3474,19 +3599,22 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,16 +3674,16 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1800</v>
@@ -3565,48 +3695,51 @@
         <v>1800</v>
       </c>
       <c r="L57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
       </c>
       <c r="N57" s="3">
         <v>1600</v>
       </c>
       <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
         <v>1700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1600</v>
       </c>
       <c r="Q57" s="3">
         <v>1600</v>
       </c>
       <c r="R57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>900</v>
       </c>
       <c r="V57" s="3">
         <v>900</v>
       </c>
       <c r="W57" s="3">
+        <v>900</v>
+      </c>
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -3615,19 +3748,19 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -3654,63 +3787,66 @@
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1700</v>
       </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2400</v>
       </c>
       <c r="R59" s="3">
         <v>2400</v>
@@ -3719,84 +3855,90 @@
         <v>2400</v>
       </c>
       <c r="T59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>4200</v>
       </c>
       <c r="S60" s="3">
         <v>4200</v>
       </c>
       <c r="T60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>4400</v>
       </c>
       <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>4200</v>
       </c>
       <c r="S66" s="3">
         <v>4200</v>
       </c>
       <c r="T66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-31800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-28700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-28300</v>
       </c>
       <c r="I72" s="3">
         <v>-28300</v>
       </c>
       <c r="J72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-27700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-26700</v>
       </c>
       <c r="N72" s="3">
         <v>-26700</v>
       </c>
       <c r="O72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-26600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-26400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-24500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-4000</v>
       </c>
       <c r="F76" s="3">
         <v>-4000</v>
       </c>
       <c r="G76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3400</v>
       </c>
       <c r="N76" s="3">
         <v>-3400</v>
       </c>
       <c r="O76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-4200</v>
       </c>
       <c r="S76" s="3">
         <v>-4200</v>
       </c>
       <c r="T76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-4100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,22 +5623,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5434,10 +5650,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -5449,7 +5665,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5461,22 +5677,25 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5514,8 +5734,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5526,8 +5746,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5541,8 +5761,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5722,11 +5951,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5736,8 +5965,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5745,23 +5974,26 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,22 +6287,25 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -6069,13 +6314,13 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6084,7 +6329,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6096,22 +6341,25 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,14 +827,17 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,46 +866,49 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,46 +937,49 @@
         <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-300</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,14 +1182,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1312,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1307,55 +1334,58 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1375,55 +1405,58 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,67 +1491,70 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1527,65 +1564,68 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1633,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1602,14 +1642,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1617,7 +1657,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1638,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1650,78 +1690,84 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2343,141 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2723,14 +2810,17 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2826,23 +2919,23 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2966,7 +3065,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2990,19 +3089,22 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>300</v>
       </c>
       <c r="W45" s="3">
+        <v>300</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3034,11 +3136,11 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3058,19 +3160,22 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3158,7 +3266,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3167,10 +3275,10 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3178,8 +3286,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3240,8 +3351,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -3249,8 +3360,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3441,8 +3561,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3453,8 +3573,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3566,7 +3692,7 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
@@ -3575,13 +3701,13 @@
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3602,19 +3728,22 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,16 +3808,16 @@
         <v>1800</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
         <v>1600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
@@ -3698,51 +3829,54 @@
         <v>1800</v>
       </c>
       <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
         <v>1700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
       </c>
       <c r="O57" s="3">
         <v>1600</v>
       </c>
       <c r="P57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1600</v>
       </c>
       <c r="R57" s="3">
         <v>1600</v>
       </c>
       <c r="S57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>900</v>
       </c>
       <c r="W57" s="3">
         <v>900</v>
       </c>
       <c r="X57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -3751,19 +3885,19 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
@@ -3790,19 +3924,22 @@
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
       </c>
       <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,46 +3947,46 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>4700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1700</v>
       </c>
       <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2400</v>
       </c>
       <c r="S59" s="3">
         <v>2400</v>
@@ -3858,87 +3995,93 @@
         <v>2400</v>
       </c>
       <c r="U59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V59" s="3">
         <v>2700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>4200</v>
       </c>
       <c r="T60" s="3">
         <v>4200</v>
       </c>
       <c r="U60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V60" s="3">
         <v>4400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>4200</v>
       </c>
       <c r="T66" s="3">
         <v>4200</v>
       </c>
       <c r="U66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-31800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-28300</v>
       </c>
       <c r="J72" s="3">
         <v>-28300</v>
       </c>
       <c r="K72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-27700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-26700</v>
       </c>
       <c r="O72" s="3">
         <v>-26700</v>
       </c>
       <c r="P72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-25300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-26400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-4000</v>
       </c>
       <c r="G76" s="3">
         <v>-4000</v>
       </c>
       <c r="H76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3400</v>
       </c>
       <c r="O76" s="3">
         <v>-3400</v>
       </c>
       <c r="P76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-4200</v>
       </c>
       <c r="T76" s="3">
         <v>-4200</v>
       </c>
       <c r="U76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,16 +5852,16 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5653,10 +5870,10 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5668,7 +5885,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5680,22 +5897,25 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5737,8 +5958,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5749,8 +5970,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5764,8 +5985,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6151,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5954,11 +6184,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5968,8 +6198,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5977,23 +6207,26 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,16 +6545,16 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -6317,13 +6563,13 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -6332,7 +6578,7 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6344,22 +6590,25 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,14 +834,17 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,46 +876,49 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,46 +950,49 @@
         <v>-100</v>
       </c>
       <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-300</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,14 +1205,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1212,14 +1232,17 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,17 +1339,18 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
@@ -1337,55 +1364,58 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1408,55 +1438,58 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,152 +1525,158 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1645,14 +1685,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
@@ -1660,7 +1700,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1681,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1693,81 +1733,87 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,141 +2413,147 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2813,14 +2900,17 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2922,14 +3015,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2937,8 +3030,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3068,7 +3167,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3092,19 +3191,22 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>300</v>
       </c>
       <c r="X45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3139,11 +3241,11 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3163,19 +3265,22 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3269,7 +3377,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3278,10 +3386,10 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3289,8 +3397,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3354,8 +3465,8 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3363,8 +3474,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3564,8 +3684,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3576,8 +3696,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3695,7 +3821,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
@@ -3704,13 +3830,13 @@
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3731,19 +3857,22 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3926,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
@@ -3811,16 +3942,16 @@
         <v>1800</v>
       </c>
       <c r="G57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
@@ -3832,54 +3963,57 @@
         <v>1800</v>
       </c>
       <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1600</v>
       </c>
       <c r="P57" s="3">
         <v>1600</v>
       </c>
       <c r="Q57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R57" s="3">
         <v>1700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1600</v>
       </c>
       <c r="S57" s="3">
         <v>1600</v>
       </c>
       <c r="T57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
-      </c>
-      <c r="W57" s="3">
-        <v>900</v>
       </c>
       <c r="X57" s="3">
         <v>900</v>
       </c>
       <c r="Y57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -3888,19 +4022,19 @@
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
       </c>
       <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
@@ -3927,69 +4061,72 @@
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
       </c>
       <c r="F59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G59" s="3">
         <v>4700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2400</v>
       </c>
       <c r="T59" s="3">
         <v>2400</v>
@@ -3998,19 +4135,22 @@
         <v>2400</v>
       </c>
       <c r="V59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W59" s="3">
         <v>2700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,70 +4158,73 @@
         <v>4600</v>
       </c>
       <c r="E60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>4200</v>
       </c>
       <c r="U60" s="3">
         <v>4200</v>
       </c>
       <c r="V60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W60" s="3">
         <v>4400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,70 +4602,73 @@
         <v>4600</v>
       </c>
       <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>4200</v>
       </c>
       <c r="U66" s="3">
         <v>4200</v>
       </c>
       <c r="V66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W66" s="3">
         <v>4400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-31800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-28300</v>
       </c>
       <c r="K72" s="3">
         <v>-28300</v>
       </c>
       <c r="L72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-27700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-26700</v>
       </c>
       <c r="P72" s="3">
         <v>-26700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-26600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-25300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5284,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5110,70 +5296,73 @@
         <v>-4500</v>
       </c>
       <c r="E76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-4000</v>
       </c>
       <c r="H76" s="3">
         <v>-4000</v>
       </c>
       <c r="I76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-3400</v>
       </c>
       <c r="P76" s="3">
         <v>-3400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-4200</v>
       </c>
       <c r="U76" s="3">
         <v>-4200</v>
       </c>
       <c r="V76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-4100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5855,16 +6072,16 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5873,10 +6090,10 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5888,7 +6105,7 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5900,22 +6117,25 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,25 +6161,26 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5973,8 +6194,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5988,8 +6209,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,16 +6381,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6187,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -6201,8 +6431,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6210,23 +6440,26 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6548,16 +6794,16 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -6566,13 +6812,13 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -6581,7 +6827,7 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6593,22 +6839,25 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -837,14 +841,17 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,46 +886,49 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,46 +963,49 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-300</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,14 +1228,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1235,14 +1255,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1366,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1349,11 +1376,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1367,55 +1394,58 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1441,55 +1471,58 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1528,70 +1562,73 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,87 +1636,90 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1688,14 +1728,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
@@ -1703,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1724,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1736,84 +1776,90 @@
         <v>200</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2416,144 +2486,150 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2903,14 +2990,17 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3018,14 +3111,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -3033,8 +3126,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3269,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3194,19 +3293,22 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
       </c>
       <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,11 +3346,11 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3268,19 +3370,22 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3380,7 +3488,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3389,10 +3497,10 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3400,8 +3508,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3468,8 +3579,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3477,8 +3588,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3687,8 +3807,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3699,8 +3819,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3920,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3824,7 +3950,7 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
@@ -3833,13 +3959,13 @@
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3860,19 +3986,22 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3936,7 +4067,7 @@
         <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="3">
         <v>1800</v>
@@ -3945,16 +4076,16 @@
         <v>1800</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1800</v>
       </c>
       <c r="L57" s="3">
         <v>1800</v>
@@ -3966,57 +4097,60 @@
         <v>1800</v>
       </c>
       <c r="O57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P57" s="3">
         <v>1700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1600</v>
       </c>
       <c r="Q57" s="3">
         <v>1600</v>
       </c>
       <c r="R57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1600</v>
       </c>
       <c r="T57" s="3">
         <v>1600</v>
       </c>
       <c r="U57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
-      </c>
-      <c r="X57" s="3">
-        <v>900</v>
       </c>
       <c r="Y57" s="3">
         <v>900</v>
       </c>
       <c r="Z57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -4025,19 +4159,19 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
@@ -4064,72 +4198,75 @@
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
       </c>
       <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1700</v>
       </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
         <v>4700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1700</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2400</v>
       </c>
       <c r="U59" s="3">
         <v>2400</v>
@@ -4138,93 +4275,99 @@
         <v>2400</v>
       </c>
       <c r="W59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X59" s="3">
         <v>2700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E60" s="3">
         <v>4600</v>
       </c>
       <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>4200</v>
       </c>
       <c r="V60" s="3">
         <v>4200</v>
       </c>
       <c r="W60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X60" s="3">
         <v>4400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
         <v>4600</v>
       </c>
       <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>4200</v>
       </c>
       <c r="V66" s="3">
         <v>4200</v>
       </c>
       <c r="W66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-31800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-28300</v>
       </c>
       <c r="L72" s="3">
         <v>-28300</v>
       </c>
       <c r="M72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-27700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-26700</v>
       </c>
       <c r="Q72" s="3">
         <v>-26700</v>
       </c>
       <c r="R72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-26600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-25300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E76" s="3">
         <v>-4500</v>
       </c>
       <c r="F76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-4000</v>
       </c>
       <c r="I76" s="3">
         <v>-4000</v>
       </c>
       <c r="J76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-3400</v>
       </c>
       <c r="Q76" s="3">
         <v>-3400</v>
       </c>
       <c r="R76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-4200</v>
       </c>
       <c r="V76" s="3">
         <v>-4200</v>
       </c>
       <c r="W76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-4100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6075,16 +6292,16 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -6093,10 +6310,10 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6108,7 +6325,7 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6120,22 +6337,25 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6197,8 +6418,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6212,8 +6433,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,16 +6611,19 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6420,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -6434,8 +6664,8 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6443,23 +6673,26 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6797,16 +7043,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -6815,13 +7061,13 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -6830,7 +7076,7 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6842,22 +7088,25 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,19 +847,22 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -889,46 +895,49 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,46 +975,49 @@
         <v>-100</v>
       </c>
       <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-300</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,14 +1250,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1258,14 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,23 +1392,24 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
@@ -1397,55 +1423,58 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1456,10 +1485,10 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1474,55 +1503,58 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,76 +1592,79 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1636,93 +1672,96 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1731,14 +1770,14 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
@@ -1746,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1767,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1779,87 +1818,93 @@
         <v>200</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2483,153 +2552,159 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2993,14 +3079,17 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,31 +3165,34 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3114,23 +3206,23 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3296,24 +3394,27 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
       </c>
       <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3349,11 +3450,11 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3373,19 +3474,22 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3491,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3500,10 +3607,10 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3511,8 +3618,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3538,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3582,8 +3692,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -3591,8 +3701,8 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3810,8 +3929,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3822,8 +3941,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,13 +4045,16 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3953,7 +4078,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -3962,13 +4087,13 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3989,19 +4114,22 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,19 +4187,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
       </c>
       <c r="F57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G57" s="3">
         <v>1800</v>
@@ -4079,16 +4209,16 @@
         <v>1800</v>
       </c>
       <c r="I57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1800</v>
@@ -4100,60 +4230,63 @@
         <v>1800</v>
       </c>
       <c r="P57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1600</v>
       </c>
       <c r="R57" s="3">
         <v>1600</v>
       </c>
       <c r="S57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T57" s="3">
         <v>1700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1600</v>
       </c>
       <c r="U57" s="3">
         <v>1600</v>
       </c>
       <c r="V57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>900</v>
       </c>
       <c r="Z57" s="3">
         <v>900</v>
       </c>
       <c r="AA57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -4162,19 +4295,19 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
@@ -4201,75 +4334,78 @@
         <v>400</v>
       </c>
       <c r="X58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
       </c>
       <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1700</v>
       </c>
       <c r="G59" s="3">
         <v>1700</v>
       </c>
       <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>4700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1700</v>
       </c>
       <c r="J59" s="3">
         <v>1700</v>
       </c>
       <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2400</v>
       </c>
       <c r="V59" s="3">
         <v>2400</v>
@@ -4278,96 +4414,102 @@
         <v>2400</v>
       </c>
       <c r="X59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>2700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4600</v>
       </c>
       <c r="F60" s="3">
         <v>4600</v>
       </c>
       <c r="G60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>4200</v>
       </c>
       <c r="W60" s="3">
         <v>4200</v>
       </c>
       <c r="X60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>4400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4600</v>
       </c>
       <c r="F66" s="3">
         <v>4600</v>
       </c>
       <c r="G66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>4200</v>
       </c>
       <c r="W66" s="3">
         <v>4200</v>
       </c>
       <c r="X66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>4400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-31800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-28700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-28300</v>
       </c>
       <c r="M72" s="3">
         <v>-28300</v>
       </c>
       <c r="N72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-27700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-26700</v>
       </c>
       <c r="R72" s="3">
         <v>-26700</v>
       </c>
       <c r="S72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-26600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-25300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-22900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-4500</v>
       </c>
       <c r="F76" s="3">
         <v>-4500</v>
       </c>
       <c r="G76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-4000</v>
       </c>
       <c r="J76" s="3">
         <v>-4000</v>
       </c>
       <c r="K76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-3400</v>
       </c>
       <c r="R76" s="3">
         <v>-3400</v>
       </c>
       <c r="S76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-4200</v>
       </c>
       <c r="W76" s="3">
         <v>-4200</v>
       </c>
       <c r="X76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6295,16 +6511,16 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6313,10 +6529,10 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -6328,7 +6544,7 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6340,22 +6556,25 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6421,8 +6641,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6436,8 +6656,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6460,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,22 +6840,25 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -6653,11 +6882,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6667,8 +6896,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6676,23 +6905,26 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,13 +7270,16 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -7046,16 +7291,16 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -7064,13 +7309,13 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -7079,7 +7324,7 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7091,22 +7336,25 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,13 +7430,16 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7257,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,14 +854,17 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,7 +872,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -898,46 +905,49 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
-        <v>100</v>
-      </c>
       <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -978,46 +988,49 @@
         <v>-100</v>
       </c>
       <c r="P10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-300</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,14 +1273,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1280,37 +1300,40 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,26 +1419,27 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
@@ -1426,55 +1453,58 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,16 +1512,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1506,55 +1536,58 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,79 +1626,82 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,96 +1712,99 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1773,14 +1813,14 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
@@ -1788,7 +1828,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1809,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>200</v>
@@ -1821,90 +1861,96 @@
         <v>200</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,159 +2622,165 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,17 +3094,18 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -3082,14 +3169,17 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,16 +3258,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -3194,8 +3287,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3209,23 +3302,23 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3373,7 +3472,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3397,28 +3496,31 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
       </c>
       <c r="AA45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
@@ -3453,11 +3555,11 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3477,19 +3579,22 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,17 +3673,20 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
@@ -3601,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3610,10 +3718,10 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3621,8 +3729,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3695,8 +3806,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -3704,8 +3815,8 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3932,8 +4052,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3944,8 +4064,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,17 +4171,20 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
@@ -4081,7 +4207,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -4090,13 +4216,13 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -4117,19 +4243,22 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4318,23 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1900</v>
       </c>
       <c r="F57" s="3">
         <v>1900</v>
       </c>
       <c r="G57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H57" s="3">
         <v>1800</v>
@@ -4212,16 +4343,16 @@
         <v>1800</v>
       </c>
       <c r="J57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1700</v>
       </c>
       <c r="L57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M57" s="3">
         <v>1600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1800</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
@@ -4233,63 +4364,66 @@
         <v>1800</v>
       </c>
       <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1600</v>
       </c>
       <c r="S57" s="3">
         <v>1600</v>
       </c>
       <c r="T57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U57" s="3">
         <v>1700</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1600</v>
       </c>
       <c r="V57" s="3">
         <v>1600</v>
       </c>
       <c r="W57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>900</v>
       </c>
       <c r="AA57" s="3">
         <v>900</v>
       </c>
       <c r="AB57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -4298,19 +4432,19 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
@@ -4337,19 +4471,22 @@
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
       </c>
       <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,58 +4494,58 @@
         <v>1900</v>
       </c>
       <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>4700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
       </c>
       <c r="K59" s="3">
         <v>1700</v>
       </c>
       <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2400</v>
       </c>
       <c r="W59" s="3">
         <v>2400</v>
@@ -4417,99 +4554,105 @@
         <v>2400</v>
       </c>
       <c r="Y59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4600</v>
       </c>
       <c r="G60" s="3">
         <v>4600</v>
       </c>
       <c r="H60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>4200</v>
       </c>
       <c r="X60" s="3">
         <v>4200</v>
       </c>
       <c r="Y60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>4400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4600</v>
       </c>
       <c r="G66" s="3">
         <v>4600</v>
       </c>
       <c r="H66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>4200</v>
       </c>
       <c r="X66" s="3">
         <v>4200</v>
       </c>
       <c r="Y66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>4400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-30700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-31800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-28700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-28300</v>
       </c>
       <c r="N72" s="3">
         <v>-28300</v>
       </c>
       <c r="O72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-27700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-26700</v>
       </c>
       <c r="S72" s="3">
         <v>-26700</v>
       </c>
       <c r="T72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-26600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-24500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-22900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-4500</v>
       </c>
       <c r="G76" s="3">
         <v>-4500</v>
       </c>
       <c r="H76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-4000</v>
       </c>
       <c r="K76" s="3">
         <v>-4000</v>
       </c>
       <c r="L76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-3400</v>
       </c>
       <c r="S76" s="3">
         <v>-3400</v>
       </c>
       <c r="T76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-4200</v>
       </c>
       <c r="X76" s="3">
         <v>-4200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,31 +6211,32 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,16 +6707,19 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6514,16 +6731,16 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6532,10 +6749,10 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -6547,7 +6764,7 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6559,22 +6776,25 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,31 +6823,32 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6644,8 +6865,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -6659,8 +6880,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,25 +7070,28 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -6885,11 +7115,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6899,8 +7129,8 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6908,23 +7138,26 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,17 +7516,20 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
@@ -7294,16 +7540,16 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -7312,13 +7558,13 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -7327,7 +7573,7 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7339,22 +7585,25 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,17 +7682,20 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,25 +861,28 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -908,46 +915,49 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +968,7 @@
         <v>-200</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
@@ -991,46 +1001,49 @@
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-300</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,14 +1296,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1303,22 +1323,25 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1335,8 +1358,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,29 +1446,30 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1456,55 +1483,58 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,19 +1542,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1539,55 +1569,58 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,82 +1660,85 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,105 +1746,108 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-3200</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1816,14 +1856,14 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
@@ -1831,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1852,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>200</v>
@@ -1864,93 +1904,99 @@
         <v>200</v>
       </c>
       <c r="AC22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3700</v>
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,165 +2692,171 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3700</v>
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3700</v>
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,11 +3191,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -3172,14 +3259,17 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3272,8 +3365,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -3290,8 +3383,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3305,23 +3398,23 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,13 +3523,16 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3475,7 +3574,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3499,19 +3598,22 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>300</v>
       </c>
       <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3519,11 +3621,11 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -3558,11 +3660,11 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3582,19 +3684,22 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
       <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,20 +3781,23 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
@@ -3712,7 +3820,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3721,10 +3829,10 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3732,8 +3840,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3809,8 +3920,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3818,8 +3929,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,13 +4125,16 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -4055,8 +4175,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -4067,8 +4187,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,20 +4297,23 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
@@ -4210,7 +4336,7 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
@@ -4219,13 +4345,13 @@
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -4246,19 +4372,22 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
       </c>
       <c r="AB54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,25 +4449,26 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1900</v>
       </c>
       <c r="G57" s="3">
         <v>1900</v>
       </c>
       <c r="H57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I57" s="3">
         <v>1800</v>
@@ -4346,16 +4477,16 @@
         <v>1800</v>
       </c>
       <c r="K57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L57" s="3">
         <v>1700</v>
       </c>
       <c r="M57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1800</v>
       </c>
       <c r="O57" s="3">
         <v>1800</v>
@@ -4367,66 +4498,69 @@
         <v>1800</v>
       </c>
       <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1600</v>
       </c>
       <c r="T57" s="3">
         <v>1600</v>
       </c>
       <c r="U57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V57" s="3">
         <v>1700</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1600</v>
       </c>
       <c r="W57" s="3">
         <v>1600</v>
       </c>
       <c r="X57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>900</v>
       </c>
       <c r="AB57" s="3">
         <v>900</v>
       </c>
       <c r="AC57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -4435,19 +4569,19 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
@@ -4474,81 +4608,84 @@
         <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
       </c>
       <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC58" s="3">
         <v>400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>7300</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
       </c>
       <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1700</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1700</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2400</v>
       </c>
       <c r="X59" s="3">
         <v>2400</v>
@@ -4557,102 +4694,108 @@
         <v>2400</v>
       </c>
       <c r="Z59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>2700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4600</v>
       </c>
       <c r="H60" s="3">
         <v>4600</v>
       </c>
       <c r="I60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>4200</v>
       </c>
       <c r="Y60" s="3">
         <v>4200</v>
       </c>
       <c r="Z60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>4400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4600</v>
       </c>
       <c r="H66" s="3">
         <v>4600</v>
       </c>
       <c r="I66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>4200</v>
       </c>
       <c r="Y66" s="3">
         <v>4200</v>
       </c>
       <c r="Z66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>4400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-28700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-28300</v>
       </c>
       <c r="O72" s="3">
         <v>-28300</v>
       </c>
       <c r="P72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-26700</v>
       </c>
       <c r="T72" s="3">
         <v>-26700</v>
       </c>
       <c r="U72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-26600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-25300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-26200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-25500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-24500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-22900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-4500</v>
       </c>
       <c r="H76" s="3">
         <v>-4500</v>
       </c>
       <c r="I76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-4000</v>
       </c>
       <c r="L76" s="3">
         <v>-4000</v>
       </c>
       <c r="M76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-3400</v>
       </c>
       <c r="T76" s="3">
         <v>-3400</v>
       </c>
       <c r="U76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-3300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-4200</v>
       </c>
       <c r="Y76" s="3">
         <v>-4200</v>
       </c>
       <c r="Z76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3700</v>
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,16 +6410,17 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -6238,8 +6437,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,19 +6924,22 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -6734,16 +6951,16 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -6752,10 +6969,10 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6767,7 +6984,7 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6779,22 +6996,25 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,17 +7044,18 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6850,8 +7071,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6868,8 +7089,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -6883,8 +7104,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,28 +7300,31 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -7118,11 +7348,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7132,8 +7362,8 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7141,23 +7371,26 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,20 +7762,23 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
@@ -7543,16 +7789,16 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -7561,13 +7807,13 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -7576,7 +7822,7 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7588,22 +7834,25 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,20 +7934,23 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MLFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>MLFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,14 +868,17 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,13 +886,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -918,46 +925,49 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="AA9" s="3">
-        <v>100</v>
-      </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,13 +975,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
@@ -1004,46 +1014,49 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-300</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,14 +1319,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1326,14 +1346,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,8 +1366,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1361,8 +1384,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1473,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1456,23 +1483,23 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1486,55 +1513,58 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1542,22 +1572,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1572,55 +1602,58 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,85 +1694,88 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1746,111 +1783,114 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1859,14 +1899,14 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
@@ -1874,7 +1914,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1895,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>200</v>
@@ -1907,96 +1947,102 @@
         <v>200</v>
       </c>
       <c r="AD22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,171 +2762,177 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3268,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3194,11 +3281,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -3262,14 +3349,17 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3368,8 +3461,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -3386,8 +3479,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3401,23 +3494,23 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3535,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3577,7 +3676,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3601,34 +3700,37 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>300</v>
       </c>
       <c r="AC45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3663,11 +3765,11 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3687,19 +3789,22 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3793,14 +3901,14 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
@@ -3823,7 +3931,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3832,10 +3940,10 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3843,8 +3951,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3923,8 +4034,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3932,8 +4043,8 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,17 +4245,20 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -4178,8 +4298,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -4190,8 +4310,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,23 +4423,26 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
@@ -4339,7 +4465,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -4348,13 +4474,13 @@
         <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -4375,19 +4501,22 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="3">
         <v>300</v>
       </c>
       <c r="AC54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4580,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4459,19 +4590,19 @@
         <v>3300</v>
       </c>
       <c r="E57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1900</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
       </c>
       <c r="I57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
@@ -4480,16 +4611,16 @@
         <v>1800</v>
       </c>
       <c r="L57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1700</v>
       </c>
       <c r="N57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1800</v>
       </c>
       <c r="P57" s="3">
         <v>1800</v>
@@ -4501,69 +4632,72 @@
         <v>1800</v>
       </c>
       <c r="S57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T57" s="3">
         <v>1700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1600</v>
       </c>
       <c r="U57" s="3">
         <v>1600</v>
       </c>
       <c r="V57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W57" s="3">
         <v>1700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1600</v>
       </c>
       <c r="X57" s="3">
         <v>1600</v>
       </c>
       <c r="Y57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>900</v>
       </c>
       <c r="AC57" s="3">
         <v>900</v>
       </c>
       <c r="AD57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
@@ -4572,19 +4706,19 @@
         <v>700</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
@@ -4611,84 +4745,87 @@
         <v>400</v>
       </c>
       <c r="AA58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AB58" s="3">
         <v>700</v>
       </c>
       <c r="AC58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD58" s="3">
         <v>400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1900</v>
       </c>
       <c r="F59" s="3">
         <v>1900</v>
       </c>
       <c r="G59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1700</v>
       </c>
       <c r="J59" s="3">
         <v>1700</v>
       </c>
       <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
         <v>4700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1700</v>
       </c>
       <c r="M59" s="3">
         <v>1700</v>
       </c>
       <c r="N59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
-      </c>
-      <c r="X59" s="3">
-        <v>2400</v>
       </c>
       <c r="Y59" s="3">
         <v>2400</v>
@@ -4697,105 +4834,111 @@
         <v>2400</v>
       </c>
       <c r="AA59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AB59" s="3">
         <v>2700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4600</v>
       </c>
       <c r="I60" s="3">
         <v>4600</v>
       </c>
       <c r="J60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>4200</v>
       </c>
       <c r="Z60" s="3">
         <v>4200</v>
       </c>
       <c r="AA60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>4400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4600</v>
       </c>
       <c r="I66" s="3">
         <v>4600</v>
       </c>
       <c r="J66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>4200</v>
       </c>
       <c r="Z66" s="3">
         <v>4200</v>
       </c>
       <c r="AA66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB66" s="3">
         <v>4400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-30700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-28300</v>
       </c>
       <c r="P72" s="3">
         <v>-28300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-27700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-26700</v>
       </c>
       <c r="U72" s="3">
         <v>-26700</v>
       </c>
       <c r="V72" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-26600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-25300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-26300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-26200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-24500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-22900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-21100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-4500</v>
       </c>
       <c r="I76" s="3">
         <v>-4500</v>
       </c>
       <c r="J76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-4000</v>
       </c>
       <c r="M76" s="3">
         <v>-4000</v>
       </c>
       <c r="N76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-3400</v>
       </c>
       <c r="U76" s="3">
         <v>-3400</v>
       </c>
       <c r="V76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-3300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-4200</v>
       </c>
       <c r="Z76" s="3">
         <v>-4200</v>
       </c>
       <c r="AA76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42490</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,8 +6621,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -6440,8 +6639,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7141,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6936,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6954,16 +7171,16 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6972,10 +7189,10 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -6987,7 +7204,7 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6999,22 +7216,25 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7054,28 +7275,28 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -7092,8 +7313,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -7107,8 +7328,8 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7312,22 +7542,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -7351,11 +7581,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7365,8 +7595,8 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7374,23 +7604,26 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,23 +8008,26 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
@@ -7792,16 +8038,16 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -7810,13 +8056,13 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -7825,7 +8071,7 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7837,22 +8083,25 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8186,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7946,14 +8198,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
